--- a/Dashboards/RIOT2.xlsx
+++ b/Dashboards/RIOT2.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -73,6 +73,9 @@
     <x:t>JustInfinite</x:t>
   </x:si>
   <x:si>
+    <x:t>pillow</x:t>
+  </x:si>
+  <x:si>
     <x:t>flamer99</x:t>
   </x:si>
   <x:si>
@@ -82,9 +85,6 @@
     <x:t>cr7123</x:t>
   </x:si>
   <x:si>
-    <x:t>pillow</x:t>
-  </x:si>
-  <x:si>
     <x:t>Space_Blood_</x:t>
   </x:si>
   <x:si>
@@ -280,7 +280,7 @@
     <x:t>0,0 (0/0)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,1 (92/30)</x:t>
+    <x:t>3,2 (128/40)</x:t>
   </x:si>
   <x:si>
     <x:t>2,3 (7/3)</x:t>
@@ -295,6 +295,9 @@
     <x:t>1,7 (20/12)</x:t>
   </x:si>
   <x:si>
+    <x:t>3,6 (36/10)</x:t>
+  </x:si>
+  <x:si>
     <x:t>2,3 (606/261)</x:t>
   </x:si>
   <x:si>
@@ -349,7 +352,7 @@
     <x:t>1,9 (68/35)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,8 (258/143)</x:t>
+    <x:t>1,8 (318/175)</x:t>
   </x:si>
   <x:si>
     <x:t>- (/)</x:t>
@@ -364,7 +367,10 @@
     <x:t>1,2 (26/22)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,7 (307/178)</x:t>
+    <x:t>1,9 (60/32)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (307/182)</x:t>
   </x:si>
   <x:si>
     <x:t>1,5 (15/10)</x:t>
@@ -388,6 +394,9 @@
     <x:t>0,0 (0/1)</x:t>
   </x:si>
   <x:si>
+    <x:t>0,0 (0/4)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,6 (115/70)</x:t>
   </x:si>
   <x:si>
@@ -409,7 +418,7 @@
     <x:t>1,7 (34/20)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,3 (1458/1081)</x:t>
+    <x:t>1,4 (1527/1129)</x:t>
   </x:si>
   <x:si>
     <x:t>1,4 (232/167)</x:t>
@@ -446,6 +455,9 @@
   </x:si>
   <x:si>
     <x:t>1,3 (245/187)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (69/48)</x:t>
   </x:si>
   <x:si>
     <x:t>1,3 (8/6)</x:t>
@@ -1029,10 +1041,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>4663.5092366071</x:v>
+        <x:v>4805.51864583329</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>251550.807687498</x:v>
+        <x:v>253538.939416665</x:v>
       </x:c>
       <x:c r="E3" s="16" t="n">
         <x:v>10938.2642916665</x:v>
@@ -1074,7 +1086,7 @@
         <x:v>9549.49712499999</x:v>
       </x:c>
       <x:c r="R3" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1988.13172916666</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -1135,10 +1147,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>1680.29825416666</x:v>
+        <x:v>2242.88597083332</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
-        <x:v>69954.8046041663</x:v>
+        <x:v>72767.7431874996</x:v>
       </x:c>
       <x:c r="E5" s="16" t="s"/>
       <x:c r="F5" s="16" t="s"/>
@@ -1162,7 +1174,7 @@
         <x:v>1150.09429166667</x:v>
       </x:c>
       <x:c r="R5" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2812.93858333331</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:146">
@@ -1170,10 +1182,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>1089.41377976192</x:v>
+        <x:v>1094.23990178573</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>323733.174666667</x:v>
+        <x:v>323800.740375</x:v>
       </x:c>
       <x:c r="E6" s="16" t="n">
         <x:v>0</x:v>
@@ -1215,7 +1227,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R6" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>67.5657083333354</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:146">
@@ -1223,20 +1235,38 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>605.80567083332</x:v>
+        <x:v>822.930410714288</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>189650.200937501</x:v>
-      </x:c>
-      <x:c r="E7" s="16" t="s"/>
-      <x:c r="F7" s="16" t="s"/>
-      <x:c r="G7" s="16" t="s"/>
-      <x:c r="H7" s="16" t="s"/>
-      <x:c r="I7" s="16" t="s"/>
-      <x:c r="J7" s="16" t="s"/>
-      <x:c r="K7" s="16" t="s"/>
-      <x:c r="L7" s="16" t="s"/>
-      <x:c r="M7" s="16" t="s"/>
+        <x:v>253635.284833333</x:v>
+      </x:c>
+      <x:c r="E7" s="16" t="n">
+        <x:v>4.28833333333023</x:v>
+      </x:c>
+      <x:c r="F7" s="16" t="n">
+        <x:v>160.887666666677</x:v>
+      </x:c>
+      <x:c r="G7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J7" s="16" t="n">
+        <x:v>4165.11179166668</x:v>
+      </x:c>
+      <x:c r="K7" s="16" t="n">
+        <x:v>274.180666666682</x:v>
+      </x:c>
+      <x:c r="L7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="N7" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -1247,10 +1277,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q7" s="16" t="n">
-        <x:v>2016.7488541666</x:v>
+        <x:v>810.696124999988</x:v>
       </x:c>
       <x:c r="R7" s="16" t="n">
-        <x:v>1012.2795</x:v>
+        <x:v>6105.86116666667</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
@@ -1258,52 +1288,34 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>545.892273809519</x:v>
+        <x:v>605.80567083332</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
-        <x:v>60256.3410624998</x:v>
-      </x:c>
-      <x:c r="E8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L8" s="16" t="n">
-        <x:v>2432.81991666665</x:v>
-      </x:c>
-      <x:c r="M8" s="16" t="n">
-        <x:v>658.636250000003</x:v>
-      </x:c>
+        <x:v>189650.200937501</x:v>
+      </x:c>
+      <x:c r="E8" s="16" t="s"/>
+      <x:c r="F8" s="16" t="s"/>
+      <x:c r="G8" s="16" t="s"/>
+      <x:c r="H8" s="16" t="s"/>
+      <x:c r="I8" s="16" t="s"/>
+      <x:c r="J8" s="16" t="s"/>
+      <x:c r="K8" s="16" t="s"/>
+      <x:c r="L8" s="16" t="s"/>
+      <x:c r="M8" s="16" t="s"/>
       <x:c r="N8" s="16" t="n">
-        <x:v>13.3671666666633</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O8" s="16" t="n">
-        <x:v>4536.45016666662</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P8" s="16" t="n">
-        <x:v>1.21833333333052</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q8" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2016.7488541666</x:v>
       </x:c>
       <x:c r="R8" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1012.2795</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:146">
@@ -1311,22 +1323,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="15" t="n">
-        <x:v>421.325893939402</x:v>
+        <x:v>545.892273809519</x:v>
       </x:c>
       <x:c r="D9" s="15" t="n">
-        <x:v>157117.763583333</x:v>
+        <x:v>60256.3410624998</x:v>
       </x:c>
       <x:c r="E9" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F9" s="16" t="n">
-        <x:v>1260.4996666667</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G9" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="16" t="n">
-        <x:v>1307.48100000006</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I9" s="16" t="n">
         <x:v>0</x:v>
@@ -1338,57 +1350,63 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L9" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2432.81991666665</x:v>
       </x:c>
       <x:c r="M9" s="16" t="n">
-        <x:v>2066.60416666666</x:v>
+        <x:v>658.636250000003</x:v>
       </x:c>
       <x:c r="N9" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>13.3671666666633</x:v>
       </x:c>
       <x:c r="O9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P9" s="16" t="s"/>
-      <x:c r="Q9" s="16" t="s"/>
-      <x:c r="R9" s="16" t="s"/>
+        <x:v>4536.45016666662</x:v>
+      </x:c>
+      <x:c r="P9" s="16" t="n">
+        <x:v>1.21833333333052</x:v>
+      </x:c>
+      <x:c r="Q9" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R9" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:146">
       <x:c r="B10" s="14" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="15" t="n">
-        <x:v>386.797470238097</x:v>
+        <x:v>421.325893939402</x:v>
       </x:c>
       <x:c r="D10" s="15" t="n">
-        <x:v>247529.423666666</x:v>
+        <x:v>157117.763583333</x:v>
       </x:c>
       <x:c r="E10" s="16" t="n">
-        <x:v>4.28833333333023</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F10" s="16" t="n">
-        <x:v>160.887666666677</x:v>
+        <x:v>1260.4996666667</x:v>
       </x:c>
       <x:c r="G10" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1307.48100000006</x:v>
       </x:c>
       <x:c r="I10" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J10" s="16" t="n">
-        <x:v>4165.11179166668</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K10" s="16" t="n">
-        <x:v>274.180666666682</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L10" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M10" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2066.60416666666</x:v>
       </x:c>
       <x:c r="N10" s="16" t="n">
         <x:v>0</x:v>
@@ -1396,15 +1414,9 @@
       <x:c r="O10" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="P10" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q10" s="16" t="n">
-        <x:v>810.696124999988</x:v>
-      </x:c>
-      <x:c r="R10" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="P10" s="16" t="s"/>
+      <x:c r="Q10" s="16" t="s"/>
+      <x:c r="R10" s="16" t="s"/>
     </x:row>
     <x:row r="11" spans="1:146">
       <x:c r="B11" s="14" t="s">
@@ -3442,7 +3454,7 @@
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
         <x:v>77</x:v>
@@ -3487,7 +3499,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
@@ -3495,28 +3507,28 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D4" s="19" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="E4" s="19" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F4" s="19" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G4" s="19" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H4" s="19" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I4" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J4" s="19" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="K4" s="19" t="s">
         <x:v>76</x:v>
@@ -3525,16 +3537,16 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="M4" s="19" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N4" s="19" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="O4" s="19" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="P4" s="19" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="Q4" s="19" t="s">
         <x:v>76</x:v>
@@ -3545,7 +3557,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
         <x:v>76</x:v>
@@ -3554,7 +3566,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
         <x:v>76</x:v>
@@ -3563,7 +3575,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
         <x:v>76</x:v>
@@ -3595,7 +3607,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
         <x:v>76</x:v>
@@ -3619,10 +3631,10 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="K6" s="19" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L6" s="19" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M6" s="19" t="s">
         <x:v>76</x:v>
@@ -3645,7 +3657,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
         <x:v>76</x:v>
@@ -3678,10 +3690,10 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
         <x:v>76</x:v>
@@ -3695,49 +3707,49 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E8" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="O8" s="19" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
@@ -3745,25 +3757,25 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
         <x:v>76</x:v>
@@ -3772,13 +3784,13 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
         <x:v>76</x:v>
@@ -3787,7 +3799,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
@@ -3795,25 +3807,25 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="E10" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F10" s="19" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G10" s="19" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J10" s="19" t="s">
         <x:v>76</x:v>
@@ -3822,16 +3834,16 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="L10" s="19" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="M10" s="19" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="O10" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
         <x:v>76</x:v>
@@ -3845,49 +3857,49 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D11" s="19" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E11" s="19" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="F11" s="19" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="G11" s="19" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="H11" s="19" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="I11" s="19" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="J11" s="19" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="K11" s="19" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="L11" s="19" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="M11" s="19" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="D11" s="19" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E11" s="19" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="F11" s="19" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="G11" s="19" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="H11" s="19" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="I11" s="19" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="J11" s="19" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="K11" s="19" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="L11" s="19" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="M11" s="19" t="s">
-        <x:v>117</x:v>
-      </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>130</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
@@ -3895,13 +3907,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="E12" s="19" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F12" s="19" t="s">
         <x:v>76</x:v>
@@ -3913,39 +3925,39 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="I12" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K12" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L12" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M12" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N12" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O12" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
       <x:c r="B13" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>134</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
         <x:v>76</x:v>
@@ -3969,16 +3981,16 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
-        <x:v>135</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="L13" s="19" t="s">
-        <x:v>136</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="M13" s="19" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="N13" s="19" t="s">
-        <x:v>137</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
         <x:v>76</x:v>
@@ -3992,37 +4004,37 @@
     </x:row>
     <x:row r="14" spans="1:36">
       <x:c r="B14" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="18" t="s">
-        <x:v>138</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E14" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F14" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
         <x:v>76</x:v>
@@ -4034,10 +4046,10 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>139</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
@@ -4045,7 +4057,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
         <x:v>76</x:v>
@@ -4057,7 +4069,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="G15" s="19" t="s">
-        <x:v>142</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
         <x:v>76</x:v>
@@ -4072,7 +4084,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="L15" s="19" t="s">
-        <x:v>143</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M15" s="19" t="s">
         <x:v>76</x:v>
@@ -4084,7 +4096,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
         <x:v>76</x:v>
@@ -4092,22 +4104,22 @@
     </x:row>
     <x:row r="16" spans="1:36">
       <x:c r="B16" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
-        <x:v>145</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="E16" s="19" t="s">
-        <x:v>146</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F16" s="19" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="G16" s="19" t="s">
-        <x:v>147</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H16" s="19" t="s">
         <x:v>76</x:v>
@@ -4122,7 +4134,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="L16" s="19" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="M16" s="19" t="s">
         <x:v>76</x:v>
@@ -4131,13 +4143,13 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="O16" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P16" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q16" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
@@ -4145,7 +4157,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C17" s="18" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D17" s="19" t="s">
         <x:v>76</x:v>
@@ -4184,7 +4196,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="P17" s="19" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="Q17" s="19" t="s">
         <x:v>76</x:v>
@@ -4195,49 +4207,49 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>149</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D18" s="19" t="s">
-        <x:v>150</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E18" s="19" t="s">
-        <x:v>151</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F18" s="19" t="s">
-        <x:v>152</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G18" s="19" t="s">
-        <x:v>153</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H18" s="19" t="s">
-        <x:v>154</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="I18" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J18" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K18" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L18" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M18" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N18" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O18" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P18" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q18" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:36">
@@ -4298,46 +4310,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D20" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E20" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F20" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G20" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H20" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I20" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J20" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K20" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L20" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M20" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N20" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O20" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P20" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q20" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:36">
@@ -4348,46 +4360,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D21" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E21" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F21" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G21" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H21" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I21" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J21" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K21" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L21" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M21" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N21" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O21" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P21" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q21" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:36">
@@ -4448,46 +4460,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D23" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E23" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F23" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G23" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H23" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I23" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J23" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K23" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L23" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M23" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N23" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O23" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P23" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q23" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:36">
@@ -4498,46 +4510,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F24" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G24" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H24" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J24" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K24" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L24" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M24" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N24" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O24" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P24" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q24" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:36">
@@ -4548,46 +4560,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D25" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E25" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F25" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G25" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H25" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I25" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J25" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K25" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L25" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M25" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N25" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O25" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P25" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q25" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:36">
@@ -4595,13 +4607,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>155</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D26" s="19" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="19" t="s">
-        <x:v>155</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F26" s="19" t="s">
         <x:v>76</x:v>
@@ -4648,46 +4660,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D27" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E27" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F27" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G27" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H27" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I27" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J27" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K27" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L27" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M27" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N27" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O27" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P27" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q27" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:36">
@@ -4698,46 +4710,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D28" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E28" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F28" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G28" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H28" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I28" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J28" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K28" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L28" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M28" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N28" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O28" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P28" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q28" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:36">
@@ -4748,46 +4760,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D29" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E29" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F29" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G29" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H29" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I29" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J29" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K29" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L29" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M29" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N29" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O29" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P29" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q29" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:36">
@@ -4798,46 +4810,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D30" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E30" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F30" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G30" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H30" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I30" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J30" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K30" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L30" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M30" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N30" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O30" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P30" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q30" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:36">
@@ -4848,46 +4860,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D31" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E31" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F31" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G31" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H31" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I31" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J31" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K31" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L31" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M31" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N31" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O31" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P31" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q31" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:36">
@@ -4898,46 +4910,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D32" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E32" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F32" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G32" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H32" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I32" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J32" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K32" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L32" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M32" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N32" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O32" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P32" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q32" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:36">
@@ -4948,46 +4960,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D33" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E33" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F33" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G33" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H33" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I33" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J33" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K33" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M33" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N33" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O33" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P33" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q33" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:36">
@@ -4998,46 +5010,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D34" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F34" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G34" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H34" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I34" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J34" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K34" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L34" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M34" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N34" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O34" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P34" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q34" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:36">
@@ -5048,46 +5060,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D35" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E35" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F35" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G35" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H35" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I35" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J35" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K35" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L35" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M35" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N35" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O35" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P35" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q35" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:36">
@@ -5098,46 +5110,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D36" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E36" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F36" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G36" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H36" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I36" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J36" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K36" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L36" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M36" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N36" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O36" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P36" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q36" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:36">
@@ -5148,46 +5160,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D37" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E37" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F37" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G37" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H37" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I37" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J37" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K37" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L37" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M37" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N37" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O37" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P37" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q37" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:36">
@@ -5198,46 +5210,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D38" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E38" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F38" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G38" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H38" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I38" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J38" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K38" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L38" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M38" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N38" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O38" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P38" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q38" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:36">
@@ -5248,46 +5260,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D39" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E39" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F39" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G39" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H39" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I39" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J39" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K39" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L39" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M39" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N39" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O39" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P39" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q39" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:36">
@@ -5298,46 +5310,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D40" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E40" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F40" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G40" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H40" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I40" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J40" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K40" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L40" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M40" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N40" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O40" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P40" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q40" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:36">
@@ -5348,46 +5360,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D41" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E41" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F41" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G41" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H41" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I41" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J41" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K41" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L41" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M41" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N41" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O41" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P41" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q41" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:36">
@@ -5398,46 +5410,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D42" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E42" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F42" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G42" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H42" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I42" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J42" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K42" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L42" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M42" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N42" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O42" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P42" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q42" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:36">
@@ -5448,46 +5460,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D43" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E43" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F43" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G43" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H43" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I43" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J43" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K43" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L43" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M43" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N43" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O43" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P43" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q43" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:36">
@@ -5498,46 +5510,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D44" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E44" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F44" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G44" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H44" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I44" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J44" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K44" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L44" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M44" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N44" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O44" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P44" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q44" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:36">
@@ -5548,46 +5560,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D45" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E45" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F45" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G45" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H45" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I45" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J45" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K45" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L45" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M45" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N45" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O45" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P45" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q45" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:36">
@@ -5598,46 +5610,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D46" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E46" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F46" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G46" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H46" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I46" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J46" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K46" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L46" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M46" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N46" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O46" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P46" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q46" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:36">
@@ -5648,46 +5660,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D47" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E47" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F47" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G47" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H47" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I47" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J47" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K47" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L47" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M47" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N47" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O47" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P47" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q47" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:36">
@@ -5698,46 +5710,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D48" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E48" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F48" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G48" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H48" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I48" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J48" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K48" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L48" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M48" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N48" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O48" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P48" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q48" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:36">
@@ -5748,46 +5760,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D49" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E49" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F49" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G49" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H49" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I49" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J49" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K49" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L49" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M49" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N49" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O49" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P49" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q49" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:36">
@@ -5798,46 +5810,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D50" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E50" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F50" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G50" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H50" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I50" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J50" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K50" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L50" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M50" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N50" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O50" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P50" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q50" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:36">
@@ -5848,46 +5860,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D51" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E51" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F51" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G51" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H51" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I51" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J51" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K51" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L51" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M51" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N51" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O51" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P51" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q51" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:36">
@@ -5898,46 +5910,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D52" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E52" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F52" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G52" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H52" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I52" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J52" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K52" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L52" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M52" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N52" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O52" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P52" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q52" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:36">
@@ -5948,46 +5960,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D53" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E53" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F53" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G53" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H53" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I53" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J53" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K53" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L53" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M53" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N53" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O53" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P53" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q53" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:36">
@@ -5998,46 +6010,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D54" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E54" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F54" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G54" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H54" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I54" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J54" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K54" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L54" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M54" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N54" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O54" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P54" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q54" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:36">
@@ -6048,46 +6060,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D55" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E55" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F55" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G55" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H55" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I55" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J55" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K55" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L55" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M55" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N55" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O55" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P55" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q55" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:36">
@@ -6098,46 +6110,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D56" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E56" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F56" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G56" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H56" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I56" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J56" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K56" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L56" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M56" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N56" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O56" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P56" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q56" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:36">
@@ -6148,46 +6160,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D57" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E57" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F57" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G57" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H57" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I57" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J57" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K57" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L57" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M57" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N57" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O57" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P57" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q57" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:36">
@@ -6198,46 +6210,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D58" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E58" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F58" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G58" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H58" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I58" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J58" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K58" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L58" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M58" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N58" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O58" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P58" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q58" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:36">
@@ -6248,46 +6260,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D59" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E59" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F59" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G59" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H59" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I59" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J59" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K59" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L59" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M59" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N59" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O59" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P59" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q59" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:36">
@@ -6298,46 +6310,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D60" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E60" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F60" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G60" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H60" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I60" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J60" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K60" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L60" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M60" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N60" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O60" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P60" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q60" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:36">
@@ -6348,46 +6360,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D61" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E61" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F61" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G61" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H61" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I61" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J61" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K61" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L61" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M61" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N61" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O61" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P61" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q61" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:36">
@@ -6398,46 +6410,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D62" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E62" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F62" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G62" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H62" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I62" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J62" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K62" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L62" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M62" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N62" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O62" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P62" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q62" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:36">
@@ -6448,46 +6460,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D63" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E63" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F63" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G63" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H63" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I63" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J63" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K63" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L63" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M63" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N63" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O63" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P63" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q63" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:36">
@@ -6498,46 +6510,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D64" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E64" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F64" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G64" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H64" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I64" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J64" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K64" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L64" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M64" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N64" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O64" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P64" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q64" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:36">
@@ -6548,46 +6560,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D65" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E65" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F65" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G65" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H65" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I65" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J65" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K65" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L65" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M65" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N65" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O65" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P65" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q65" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:36">
@@ -6598,46 +6610,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D66" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E66" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F66" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G66" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H66" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I66" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J66" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K66" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L66" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M66" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N66" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O66" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P66" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q66" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:36">
@@ -6648,46 +6660,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D67" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E67" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F67" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G67" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H67" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I67" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J67" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K67" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L67" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M67" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N67" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O67" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P67" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q67" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:36">
@@ -6698,46 +6710,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D68" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E68" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F68" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G68" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H68" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I68" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J68" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K68" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L68" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M68" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N68" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O68" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P68" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q68" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:36">
@@ -6748,46 +6760,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D69" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E69" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F69" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G69" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H69" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I69" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J69" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K69" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L69" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M69" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N69" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O69" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P69" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q69" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:36">
@@ -6798,46 +6810,46 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D70" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E70" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F70" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G70" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H70" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I70" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J70" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K70" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L70" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M70" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N70" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O70" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P70" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q70" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:36">
